--- a/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04950451912830227</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06688086357564346</v>
+        <v>0.06688086357564348</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03710510033238525</v>
@@ -697,7 +697,7 @@
         <v>0.03226031340319419</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05988920067098323</v>
+        <v>0.05988920067098322</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01209298167287873</v>
+        <v>0.01186063454727074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02913859700419794</v>
+        <v>0.02762102364096033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00695744324299252</v>
+        <v>0.006922324814464459</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02487785392020924</v>
+        <v>0.02425455263064127</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03678308188465343</v>
+        <v>0.0358958514179295</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01685948083430688</v>
+        <v>0.01860459329322532</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03079426999524993</v>
+        <v>0.03032674990386718</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03517238256390291</v>
+        <v>0.03543761350711693</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02666754612171715</v>
+        <v>0.02709091749325122</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02868014533432602</v>
+        <v>0.02760192219560373</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02182789728231479</v>
+        <v>0.0202745842471106</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03748657862046194</v>
+        <v>0.03704749131449649</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03965284014254251</v>
+        <v>0.04081673690997339</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06698691573520719</v>
+        <v>0.06520342376181093</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03522476025673622</v>
+        <v>0.03410535991447726</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09846109780563513</v>
+        <v>0.1017137224350618</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07785421482887973</v>
+        <v>0.07645499983515422</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05453041788314787</v>
+        <v>0.0559156615117893</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07599167630729732</v>
+        <v>0.07582340449026959</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1147544280576887</v>
+        <v>0.1128761159439391</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0506305536886652</v>
+        <v>0.0497635940361307</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05603338861199552</v>
+        <v>0.0538142134980343</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04656702169265534</v>
+        <v>0.04567459088834027</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08809233942786607</v>
+        <v>0.09224453749584388</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02058180324959671</v>
+        <v>0.02130513881732524</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03378012432882398</v>
+        <v>0.03385346557777844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03871577378814554</v>
+        <v>0.03688618884840891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05826340779355265</v>
+        <v>0.05736244523610303</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05900542463865834</v>
+        <v>0.06191094045504926</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04312921640004004</v>
+        <v>0.04283872740730883</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04055162623214753</v>
+        <v>0.0419889872215153</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0811670904868742</v>
+        <v>0.08009594957890355</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04362790183939803</v>
+        <v>0.04345504755659811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04241002600795515</v>
+        <v>0.04267229507729437</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04310750604550328</v>
+        <v>0.04414440516567979</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0774970650101407</v>
+        <v>0.07537078082088007</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04938794784943498</v>
+        <v>0.04757316376743748</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06860888491852921</v>
+        <v>0.07043387935293832</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07476131131145911</v>
+        <v>0.07517743199319969</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1262635832866659</v>
+        <v>0.1259329967972299</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1035692329346555</v>
+        <v>0.1046872808664998</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08267499543201888</v>
+        <v>0.08358406761758395</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.080395924240485</v>
+        <v>0.08346207035745228</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1433103394178257</v>
+        <v>0.1378139946229329</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0679635488438507</v>
+        <v>0.06866409616187807</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06712680409720762</v>
+        <v>0.06795858854723708</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07082629826250514</v>
+        <v>0.07074207911292207</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1217270306942509</v>
+        <v>0.1215320894566015</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.05829537540577182</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09892269091133254</v>
+        <v>0.09892269091133256</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05636769577259009</v>
@@ -969,7 +969,7 @@
         <v>0.05225832888755559</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08730333993393057</v>
+        <v>0.08730333993393055</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0305609409875842</v>
+        <v>0.03077185031510337</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04421894936837512</v>
+        <v>0.04635664499370643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0311064253395349</v>
+        <v>0.03154513463382244</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05682709335780944</v>
+        <v>0.05544618402470208</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04814870984524509</v>
+        <v>0.04672404161638319</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08949898777496906</v>
+        <v>0.08985089268727843</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04289727082803076</v>
+        <v>0.04235185662191728</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08030523644275207</v>
+        <v>0.07997100844332573</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04622767814459725</v>
+        <v>0.04517608598485996</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07301086825028641</v>
+        <v>0.0746077665597867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04020178440660829</v>
+        <v>0.04067351936263648</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0735790948220993</v>
+        <v>0.07321095281335591</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06506532964595819</v>
+        <v>0.0677362705934595</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08259594823907578</v>
+        <v>0.08328625286887069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06769682586627292</v>
+        <v>0.06650666542281855</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1009740861073598</v>
+        <v>0.1021241689305627</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08601724001810422</v>
+        <v>0.08439492527092973</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1391002223153755</v>
+        <v>0.1377177878147798</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07917353163779639</v>
+        <v>0.07828534857575041</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.11982187900387</v>
+        <v>0.1207796378554984</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07153638089162383</v>
+        <v>0.07147094626320566</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1038458409059448</v>
+        <v>0.1051745007357854</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06641298019976907</v>
+        <v>0.06605316910471734</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1051583980807033</v>
+        <v>0.1043298839136321</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1111514475748946</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1219853685526472</v>
+        <v>0.1219853685526473</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06592194081847377</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02871978910862021</v>
+        <v>0.02995895922856791</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0683509883882942</v>
+        <v>0.06808422586667805</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08138421516651612</v>
+        <v>0.08133944854152622</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07829102884605392</v>
+        <v>0.07995780619601511</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06390878916793317</v>
+        <v>0.06610061228639595</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1360734678691395</v>
+        <v>0.1370707007862792</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08718969281691229</v>
+        <v>0.08952284162597778</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1030579962185094</v>
+        <v>0.1034610460873537</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05164933092946203</v>
+        <v>0.05060416466061664</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1085695372244477</v>
+        <v>0.1100116412148132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.091105258027047</v>
+        <v>0.09072226971902289</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09763611004078242</v>
+        <v>0.09759938432816283</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0713001749229005</v>
+        <v>0.06986053678514757</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1205990798371197</v>
+        <v>0.1172432802166686</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1340021241545028</v>
+        <v>0.1306868544556802</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1227816843447663</v>
+        <v>0.1267169214110823</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1122557405446167</v>
+        <v>0.1148870006428206</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1985345149113334</v>
+        <v>0.2012432822849505</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1391905737436377</v>
+        <v>0.1373518507511596</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1415853492417689</v>
+        <v>0.1421105660075732</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08306542087559515</v>
+        <v>0.08228963648079281</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.148488867519273</v>
+        <v>0.1486656546276331</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1273466491453863</v>
+        <v>0.1258151218497001</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1285401537941362</v>
+        <v>0.1289569470279916</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05037802173710175</v>
+        <v>0.04821219099810899</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0887766933948857</v>
+        <v>0.08698434232432262</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08070327451842621</v>
+        <v>0.0754181000670968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09716562122695689</v>
+        <v>0.09661321607250395</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06620122472184647</v>
+        <v>0.06681079814737578</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1310896066566491</v>
+        <v>0.133234968561382</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1489683913669095</v>
+        <v>0.1459544785408261</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1540512037865354</v>
+        <v>0.1548838262988667</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06498270629254579</v>
+        <v>0.06527676892739774</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1184681698802869</v>
+        <v>0.11708719486109</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1194098420291614</v>
+        <v>0.1207998437584723</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1320498995724664</v>
+        <v>0.1334872783784228</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1022003657276621</v>
+        <v>0.09769359697031263</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1474742702496043</v>
+        <v>0.1519382087796313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1373756073485917</v>
+        <v>0.1339334910533656</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1452351014090953</v>
+        <v>0.146782258912761</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1222755807044219</v>
+        <v>0.1237885916972616</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2049410990771831</v>
+        <v>0.2021585566843293</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2199801613301461</v>
+        <v>0.2158597653961205</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2028068434272405</v>
+        <v>0.2044905489652444</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1025639082796353</v>
+        <v>0.1021625137496069</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1647028286973708</v>
+        <v>0.1667005877661986</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1658877632745751</v>
+        <v>0.1686506142448936</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1668406131397035</v>
+        <v>0.1682464623725851</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07574194681978762</v>
+        <v>0.07532992576022335</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08805871859676946</v>
+        <v>0.08446168723863154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05042939203490536</v>
+        <v>0.04775972257280722</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1093535736842692</v>
+        <v>0.1069753358100519</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1045210232194424</v>
+        <v>0.1032175652412247</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1507603212321846</v>
+        <v>0.1483956321846275</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1186888449358576</v>
+        <v>0.1198268888944595</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1648431215452081</v>
+        <v>0.1665853175184053</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09970051543627534</v>
+        <v>0.1002316619160062</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1328416949854244</v>
+        <v>0.1333957625415108</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09525076123538866</v>
+        <v>0.09624433484503886</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.147355493863575</v>
+        <v>0.1441120573125231</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1516190475189026</v>
+        <v>0.1496085239626801</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1688294207805612</v>
+        <v>0.1706628561457143</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.109045631310499</v>
+        <v>0.1081807192778058</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1667708964198229</v>
+        <v>0.1630703188319109</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1711862808102235</v>
+        <v>0.1766658104582116</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2335167933668567</v>
+        <v>0.2345170917857433</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1948719906429306</v>
+        <v>0.1979169177189012</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2243058296954324</v>
+        <v>0.2235036560939055</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1497058449682909</v>
+        <v>0.1489213660991409</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.188578075325016</v>
+        <v>0.1949475376195001</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1448783773463259</v>
+        <v>0.1458301491143085</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1872986905355233</v>
+        <v>0.1851858109650021</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2151156347191636</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2417183197137751</v>
+        <v>0.2417183197137752</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05800965357236192</v>
+        <v>0.05395582568722466</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1060217342788744</v>
+        <v>0.1067662310559661</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1138302127373183</v>
+        <v>0.1163385584857337</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1697466010581967</v>
+        <v>0.1708885720193904</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07742540558325345</v>
+        <v>0.07563470899488954</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2116873659385523</v>
+        <v>0.208504891019246</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2083729601840166</v>
+        <v>0.2068373339917384</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2374866570463034</v>
+        <v>0.2380380006415402</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07810322500319029</v>
+        <v>0.07802362729967374</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1806049653359759</v>
+        <v>0.1803935793288514</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1821973524663373</v>
+        <v>0.1814689255971232</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2180130516647127</v>
+        <v>0.2189723898214883</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1290495627564334</v>
+        <v>0.1292848516467609</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2006943903033215</v>
+        <v>0.1945371024868664</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1912609729782238</v>
+        <v>0.2017590720660866</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2521046275609223</v>
+        <v>0.2469887061658338</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1497509893732785</v>
+        <v>0.1462330512766247</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3008858702604794</v>
+        <v>0.3019208784201819</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3051439503706768</v>
+        <v>0.3096524391200806</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3003575108492119</v>
+        <v>0.299651915615852</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1291838614712569</v>
+        <v>0.1301055401010124</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2462051960656527</v>
+        <v>0.2481811805985503</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2531827220797727</v>
+        <v>0.2495833056438485</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2687894965770746</v>
+        <v>0.2696417957822873</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04347079510922459</v>
+        <v>0.04311919240961611</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07131369729287801</v>
+        <v>0.07197368829650015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06517420310489319</v>
+        <v>0.0652781056160829</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09544437701829278</v>
+        <v>0.09516980039803112</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07630781500932482</v>
+        <v>0.07464912022895212</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1218722997216838</v>
+        <v>0.1221262719100681</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1067075176426601</v>
+        <v>0.1060105785833267</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1374014502238998</v>
+        <v>0.1370951098210079</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06151477481106755</v>
+        <v>0.06140327427333837</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.09987682751577415</v>
+        <v>0.09982736209948989</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08933909286287554</v>
+        <v>0.08859135797288953</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1189495062954226</v>
+        <v>0.1198160033536074</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05878697006560134</v>
+        <v>0.05893917124732632</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09135638670947459</v>
+        <v>0.09042814050316984</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08345201846003837</v>
+        <v>0.08261559851305625</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1159597122811686</v>
+        <v>0.1168100919059388</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09491238670497443</v>
+        <v>0.09362382835817423</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1451936422194225</v>
+        <v>0.1446609208203272</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1303490909521384</v>
+        <v>0.129164080107258</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.156993576562415</v>
+        <v>0.1564296825999885</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07437778645193248</v>
+        <v>0.07452005113067418</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1152419119481012</v>
+        <v>0.114866001045333</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1029315984989935</v>
+        <v>0.1034987483551263</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.133926100006545</v>
+        <v>0.134167952996326</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5975</v>
+        <v>5860</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13233</v>
+        <v>12544</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2918</v>
+        <v>2904</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10145</v>
+        <v>9891</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17196</v>
+        <v>16781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7203</v>
+        <v>7948</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12159</v>
+        <v>11974</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12750</v>
+        <v>12847</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>25642</v>
+        <v>26049</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>25278</v>
+        <v>24327</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17774</v>
+        <v>16510</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>28876</v>
+        <v>28538</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19591</v>
+        <v>20166</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>30422</v>
+        <v>29612</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14775</v>
+        <v>14306</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>40152</v>
+        <v>41478</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36396</v>
+        <v>35742</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23296</v>
+        <v>23888</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30004</v>
+        <v>29938</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41600</v>
+        <v>40919</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>48684</v>
+        <v>47850</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>49386</v>
+        <v>47430</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>37919</v>
+        <v>37193</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>67858</v>
+        <v>71056</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15138</v>
+        <v>15670</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23178</v>
+        <v>23229</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22862</v>
+        <v>21781</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>27785</v>
+        <v>27356</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>36908</v>
+        <v>38725</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26274</v>
+        <v>26097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22853</v>
+        <v>23663</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>40671</v>
+        <v>40135</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>59377</v>
+        <v>59142</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>54935</v>
+        <v>55275</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49748</v>
+        <v>50944</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>75790</v>
+        <v>73711</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36324</v>
+        <v>34990</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47076</v>
+        <v>48328</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44146</v>
+        <v>44392</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>60214</v>
+        <v>60056</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>64782</v>
+        <v>65481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>50365</v>
+        <v>50919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>45307</v>
+        <v>47035</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>71810</v>
+        <v>69056</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>92497</v>
+        <v>93451</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>86952</v>
+        <v>88030</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>81736</v>
+        <v>81639</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>119046</v>
+        <v>118855</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19518</v>
+        <v>19653</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>30151</v>
+        <v>31609</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20813</v>
+        <v>21107</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35280</v>
+        <v>34423</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33210</v>
+        <v>32228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>63535</v>
+        <v>63785</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28259</v>
+        <v>27899</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>49961</v>
+        <v>49753</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>61409</v>
+        <v>60012</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>101614</v>
+        <v>103836</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>53382</v>
+        <v>54008</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>91457</v>
+        <v>90999</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41555</v>
+        <v>43261</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56319</v>
+        <v>56790</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45296</v>
+        <v>44499</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>62688</v>
+        <v>63402</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59330</v>
+        <v>58211</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>98747</v>
+        <v>97766</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52156</v>
+        <v>51571</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>74546</v>
+        <v>75142</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>95030</v>
+        <v>94943</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>144529</v>
+        <v>146378</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>88187</v>
+        <v>87709</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>130709</v>
+        <v>129680</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14910</v>
+        <v>15553</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>41759</v>
+        <v>41596</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52396</v>
+        <v>52367</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54852</v>
+        <v>56020</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32954</v>
+        <v>34084</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>83711</v>
+        <v>84324</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>56593</v>
+        <v>58107</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>75827</v>
+        <v>76124</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>53446</v>
+        <v>52365</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>133121</v>
+        <v>134889</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>117789</v>
+        <v>117294</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>140243</v>
+        <v>140191</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37015</v>
+        <v>36268</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>73679</v>
+        <v>71629</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>86272</v>
+        <v>84138</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>86023</v>
+        <v>88780</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>57884</v>
+        <v>59241</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>122136</v>
+        <v>123803</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>90345</v>
+        <v>89152</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>104174</v>
+        <v>104561</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>85955</v>
+        <v>85152</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>182067</v>
+        <v>182284</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>164645</v>
+        <v>162665</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>184634</v>
+        <v>185232</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>19482</v>
+        <v>18644</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38123</v>
+        <v>37354</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38404</v>
+        <v>35889</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>58881</v>
+        <v>58547</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>26744</v>
+        <v>26991</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>58702</v>
+        <v>59663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>73681</v>
+        <v>72191</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>93684</v>
+        <v>94190</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>51382</v>
+        <v>51614</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>103924</v>
+        <v>102712</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>115885</v>
+        <v>117233</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>160325</v>
+        <v>162070</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>39522</v>
+        <v>37779</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>63330</v>
+        <v>65247</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>65373</v>
+        <v>63735</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>88011</v>
+        <v>88949</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>49398</v>
+        <v>50009</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>91773</v>
+        <v>90527</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>108804</v>
+        <v>106766</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>123334</v>
+        <v>124357</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>81097</v>
+        <v>80779</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>144482</v>
+        <v>146235</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>160990</v>
+        <v>163672</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>202565</v>
+        <v>204272</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>22161</v>
+        <v>22040</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>27279</v>
+        <v>26165</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16810</v>
+        <v>15920</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>44516</v>
+        <v>43548</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>35844</v>
+        <v>35397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>53369</v>
+        <v>52531</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>44836</v>
+        <v>45266</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>72393</v>
+        <v>73159</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>63361</v>
+        <v>63699</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>88178</v>
+        <v>88546</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>67733</v>
+        <v>68440</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>124699</v>
+        <v>121954</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>44361</v>
+        <v>43773</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>52301</v>
+        <v>52869</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>36350</v>
+        <v>36061</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>67889</v>
+        <v>66383</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>58706</v>
+        <v>60585</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>82664</v>
+        <v>83018</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>73615</v>
+        <v>74765</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>98507</v>
+        <v>98155</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>95141</v>
+        <v>94642</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>125175</v>
+        <v>129403</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>103024</v>
+        <v>103701</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>158501</v>
+        <v>156713</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12175</v>
+        <v>11324</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>26387</v>
+        <v>26573</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>29254</v>
+        <v>29899</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>52574</v>
+        <v>52928</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>25853</v>
+        <v>25255</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>82342</v>
+        <v>81104</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>83120</v>
+        <v>82507</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>109935</v>
+        <v>110190</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>42472</v>
+        <v>42429</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>115202</v>
+        <v>115067</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>119503</v>
+        <v>119025</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>168444</v>
+        <v>169185</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>27085</v>
+        <v>27135</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>49950</v>
+        <v>48417</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>49154</v>
+        <v>51852</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>78082</v>
+        <v>76498</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>50003</v>
+        <v>48828</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>117038</v>
+        <v>117441</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>121721</v>
+        <v>123520</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>139039</v>
+        <v>138712</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>70249</v>
+        <v>70750</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>157046</v>
+        <v>158306</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>166062</v>
+        <v>163701</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>207675</v>
+        <v>208334</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>142434</v>
+        <v>141282</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>243979</v>
+        <v>246237</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>220880</v>
+        <v>221233</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>336816</v>
+        <v>335847</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>257859</v>
+        <v>252254</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>432924</v>
+        <v>433826</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>377476</v>
+        <v>375010</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>512743</v>
+        <v>511600</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>409426</v>
+        <v>408684</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>696489</v>
+        <v>696144</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>618812</v>
+        <v>613633</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>863650</v>
+        <v>869941</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>192618</v>
+        <v>193117</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>312549</v>
+        <v>309373</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>282825</v>
+        <v>279991</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>409213</v>
+        <v>412214</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>320728</v>
+        <v>316373</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>515768</v>
+        <v>513875</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>461107</v>
+        <v>456915</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>585855</v>
+        <v>583751</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>495039</v>
+        <v>495986</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>803637</v>
+        <v>801016</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>712962</v>
+        <v>716890</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>972390</v>
+        <v>974146</v>
       </c>
     </row>
     <row r="36">
